--- a/mcmaster_excel/Alloy_Steel_Thread-Locking_Button_Head_Hex_Drive_Screws.xlsx
+++ b/mcmaster_excel/Alloy_Steel_Thread-Locking_Button_Head_Hex_Drive_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,139 +434,105 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Thread LockerTemperature Range, °F</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.164"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.046"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.050"</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>120,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-70° to 250°</t>
+          <t>Thread LockerTemperature Range, °F</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ASME B18.3, ASTM F835, MIL-DTL-18240</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>92360A101</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>$8.34</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2-56</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Black-Oxide Alloy Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -611,12 +577,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>92360A102</t>
+          <t>92360A101</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>$8.34</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -633,7 +599,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -678,12 +644,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>92360A103</t>
+          <t>92360A102</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -700,7 +666,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -745,12 +711,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>92360A104</t>
+          <t>92360A103</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -767,7 +733,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -777,17 +743,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.213"</t>
+          <t>0.164"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.059"</t>
+          <t>0.046"</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1/16"</t>
+          <t>0.050"</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -807,22 +773,22 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>92360A106</t>
+          <t>92360A104</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>2-56</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -834,7 +800,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -879,12 +845,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>92360A105</t>
+          <t>92360A106</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -901,7 +867,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -946,12 +912,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>92360A107</t>
+          <t>92360A105</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -968,7 +934,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1013,12 +979,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>92360A109</t>
+          <t>92360A107</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>12.54</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1035,7 +1001,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1080,12 +1046,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>92360A315</t>
+          <t>92360A109</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>12.54</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1102,7 +1068,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1112,17 +1078,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.262"</t>
+          <t>0.213"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>0.059"</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5/64"</t>
+          <t>1/16"</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1147,17 +1113,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>92360A128</t>
+          <t>92360A315</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>10.17</t>
+          <t>12.67</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1169,7 +1135,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1214,12 +1180,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>92360A130</t>
+          <t>92360A128</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>10.17</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1236,7 +1202,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1281,12 +1247,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>92360A132</t>
+          <t>92360A130</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1303,7 +1269,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1348,12 +1314,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>92360A134</t>
+          <t>92360A132</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1370,7 +1336,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1415,12 +1381,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>92360A138</t>
+          <t>92360A134</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1437,7 +1403,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1482,12 +1448,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>92360A142</t>
+          <t>92360A138</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>10.26</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1504,7 +1470,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1549,12 +1515,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>92360A669</t>
+          <t>92360A142</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>11.52</t>
+          <t>10.26</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1571,7 +1537,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1616,12 +1582,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>92360A823</t>
+          <t>92360A669</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>13.40</t>
+          <t>11.52</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1638,7 +1604,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1648,17 +1614,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.262"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.073"</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3/32"</t>
+          <t>5/64"</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1683,17 +1649,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>92360A148</t>
+          <t>92360A823</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>13.40</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1705,7 +1671,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1750,12 +1716,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>92360A150</t>
+          <t>92360A148</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>7.93</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1772,7 +1738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1817,12 +1783,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>92360A152</t>
+          <t>92360A150</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>7.93</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1839,7 +1805,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1884,12 +1850,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>92360A154</t>
+          <t>92360A152</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1906,7 +1872,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1951,12 +1917,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>92360A158</t>
+          <t>92360A154</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1973,7 +1939,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2018,12 +1984,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>92360A162</t>
+          <t>92360A158</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>7.57</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2040,7 +2006,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2085,12 +2051,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>92360A166</t>
+          <t>92360A162</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>7.57</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2107,7 +2073,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2152,12 +2118,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>92360A939</t>
+          <t>92360A166</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>11.43</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2174,7 +2140,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2184,17 +2150,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.312"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>3/32"</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2219,17 +2185,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>92360A210</t>
+          <t>92360A939</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>10.77</t>
+          <t>11.43</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2241,7 +2207,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2286,12 +2252,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>92360A214</t>
+          <t>92360A210</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>10.77</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2308,7 +2274,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2353,12 +2319,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>92360A218</t>
+          <t>92360A214</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>7.79</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2375,7 +2341,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2420,12 +2386,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>92360A222</t>
+          <t>92360A218</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2442,7 +2408,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2487,17 +2453,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>92360A240</t>
+          <t>92360A222</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2509,7 +2475,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2554,12 +2520,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>92360A212</t>
+          <t>92360A240</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2576,7 +2542,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2621,12 +2587,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>92360A244</t>
+          <t>92360A212</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2643,7 +2609,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2688,12 +2654,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>92360A248</t>
+          <t>92360A244</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2710,7 +2676,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2755,12 +2721,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>92360A219</t>
+          <t>92360A248</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2777,7 +2743,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2822,12 +2788,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>92360A252</t>
+          <t>92360A219</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2844,7 +2810,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2889,12 +2855,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>92360A984</t>
+          <t>92360A252</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>11.79</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2911,7 +2877,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2921,17 +2887,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5/32"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2951,22 +2917,22 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>92360A297</t>
+          <t>92360A984</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>11.79</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -2978,7 +2944,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3018,17 +2984,17 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>92360A299</t>
+          <t>92360A297</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>9.45</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3045,7 +3011,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3090,12 +3056,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>92360A310</t>
+          <t>92360A299</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>9.45</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3112,7 +3078,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3157,12 +3123,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>92360A314</t>
+          <t>92360A310</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3179,7 +3145,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3224,12 +3190,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>92360A318</t>
+          <t>92360A314</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>8.34</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3246,7 +3212,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3291,12 +3257,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>92360A322</t>
+          <t>92360A318</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>8.34</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3313,7 +3279,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3358,12 +3324,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>92360A324</t>
+          <t>92360A322</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>11.12</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3380,7 +3346,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3425,12 +3391,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>92360A326</t>
+          <t>92360A324</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>11.12</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3447,7 +3413,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3492,12 +3458,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>92360A329</t>
+          <t>92360A326</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>14.38</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3514,7 +3480,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3559,12 +3525,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>92360A336</t>
+          <t>92360A329</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>17.38</t>
+          <t>14.38</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3581,7 +3547,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3591,17 +3557,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.547"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.166"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>5/32"</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3621,22 +3587,22 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>92360A410</t>
+          <t>92360A336</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>17.38</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3648,7 +3614,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3693,12 +3659,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>92360A415</t>
+          <t>92360A410</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3715,7 +3681,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3760,12 +3726,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>92360A420</t>
+          <t>92360A415</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3782,7 +3748,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3827,12 +3793,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>92360A425</t>
+          <t>92360A420</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3849,7 +3815,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3859,17 +3825,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.656"</t>
+          <t>0.547"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.199"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>7/32"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3894,17 +3860,17 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>92360A710</t>
+          <t>92360A425</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>3/8"-16</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -3916,7 +3882,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3961,12 +3927,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>92360A515</t>
+          <t>92360A710</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3993,17 +3959,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.875"</t>
+          <t>0.656"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.265"</t>
+          <t>0.199"</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>7/32"</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4028,17 +3994,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>92360A615</t>
+          <t>92360A515</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>9.71</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>1/2"-13</t>
+          <t>3/8"-16</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -4050,7 +4016,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4095,12 +4061,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>92360A617</t>
+          <t>92360A615</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>9.71</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4117,65 +4083,132 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>1 1/4"</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0.875"</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.265"</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>5/16"</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>120,000</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>-70° to 250°</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>ASME B18.3, ASTM F835, MIL-DTL-18240</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>92360A617</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>1/2"-13</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Black-Oxide Alloy Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>1 1/2"</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>0.875"</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>0.265"</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>5/16"</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>120,000</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>-70° to 250°</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ASME B18.3, ASTM F835, MIL-DTL-18240</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>120,000</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-70° to 250°</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>ASME B18.3, ASTM F835, MIL-DTL-18240</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>92360A620</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>4.85</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L57" t="inlineStr">
         <is>
           <t>1/2"-13</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>Black-Oxide Alloy Steel</t>
         </is>
